--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA PROJECT\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A650EBE4-19D3-41EE-ABA7-286975CE4DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1126C4D9-AC92-4617-8B57-800D7A985A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-396" yWindow="1644" windowWidth="16632" windowHeight="12144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B389" sqref="B389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2217,6 +2217,9 @@
       <c r="A232" s="1">
         <v>284</v>
       </c>
+      <c r="B232" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
@@ -2230,6 +2233,9 @@
       <c r="A234" s="1">
         <v>289</v>
       </c>
+      <c r="B234" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
@@ -2251,11 +2257,17 @@
       <c r="A237" s="1">
         <v>295</v>
       </c>
+      <c r="B237" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>297</v>
       </c>
+      <c r="B238" s="2">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
@@ -2269,6 +2281,9 @@
       <c r="A240" s="1">
         <v>300</v>
       </c>
+      <c r="B240" s="2">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
@@ -2290,70 +2305,105 @@
       <c r="A243" s="1">
         <v>304</v>
       </c>
+      <c r="B243" s="2">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>306</v>
       </c>
+      <c r="B244" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>307</v>
       </c>
+      <c r="B245" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>309</v>
       </c>
-      <c r="B246" s="2"/>
+      <c r="B246" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>310</v>
       </c>
+      <c r="B247" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>312</v>
       </c>
+      <c r="B248" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>313</v>
       </c>
+      <c r="B249" s="2">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>315</v>
       </c>
+      <c r="B250" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>316</v>
       </c>
       <c r="B251" s="2">
-        <v>0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>318</v>
       </c>
+      <c r="B252" s="2">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>319</v>
       </c>
+      <c r="B253" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>321</v>
       </c>
+      <c r="B254" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>322</v>
       </c>
+      <c r="B255" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
@@ -2367,26 +2417,41 @@
       <c r="A257" s="1">
         <v>326</v>
       </c>
+      <c r="B257" s="2">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>327</v>
       </c>
+      <c r="B258" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>328</v>
       </c>
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>329</v>
       </c>
+      <c r="B260" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>330</v>
       </c>
+      <c r="B261" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
@@ -2400,16 +2465,25 @@
       <c r="A263" s="1">
         <v>332</v>
       </c>
+      <c r="B263" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>334</v>
       </c>
+      <c r="B264" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>335</v>
       </c>
+      <c r="B265" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
@@ -2423,6 +2497,9 @@
       <c r="A267" s="1">
         <v>337</v>
       </c>
+      <c r="B267" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
@@ -2468,6 +2545,9 @@
       <c r="A273" s="1">
         <v>347</v>
       </c>
+      <c r="B273" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
@@ -2489,21 +2569,33 @@
       <c r="A276" s="1">
         <v>352</v>
       </c>
+      <c r="B276" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>354</v>
       </c>
+      <c r="B277" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>355</v>
       </c>
+      <c r="B278" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>357</v>
       </c>
+      <c r="B279" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
@@ -2517,16 +2609,25 @@
       <c r="A281" s="1">
         <v>365</v>
       </c>
+      <c r="B281" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>367</v>
       </c>
+      <c r="B282" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>368</v>
       </c>
+      <c r="B283" s="2">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
@@ -2548,76 +2649,121 @@
       <c r="A286" s="1">
         <v>373</v>
       </c>
+      <c r="B286" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>374</v>
       </c>
+      <c r="B287" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>375</v>
       </c>
+      <c r="B288" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>376</v>
       </c>
+      <c r="B289" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>377</v>
       </c>
+      <c r="B290" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>378</v>
       </c>
+      <c r="B291" s="2">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>380</v>
       </c>
+      <c r="B292" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>381</v>
       </c>
+      <c r="B293" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>382</v>
       </c>
+      <c r="B294" s="2">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>383</v>
       </c>
+      <c r="B295" s="2">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>384</v>
       </c>
+      <c r="B296" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>385</v>
       </c>
+      <c r="B297" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>386</v>
       </c>
+      <c r="B298" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>387</v>
       </c>
+      <c r="B299" s="2">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>388</v>
       </c>
+      <c r="B300" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
@@ -2631,56 +2777,89 @@
       <c r="A302" s="1">
         <v>390</v>
       </c>
+      <c r="B302" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>391</v>
       </c>
+      <c r="B303" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>392</v>
       </c>
+      <c r="B304" s="2">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>393</v>
       </c>
+      <c r="B305" s="2">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>394</v>
       </c>
+      <c r="B306" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>395</v>
       </c>
+      <c r="B307" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>396</v>
       </c>
+      <c r="B308" s="2">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>397</v>
       </c>
+      <c r="B309" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>398</v>
       </c>
+      <c r="B310" s="2">
+        <v>0.55000000000000004</v>
+      </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>399</v>
       </c>
+      <c r="B311" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>400</v>
       </c>
+      <c r="B312" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
@@ -2694,56 +2873,89 @@
       <c r="A314" s="1">
         <v>402</v>
       </c>
+      <c r="B314" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>403</v>
       </c>
+      <c r="B315" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>404</v>
       </c>
+      <c r="B316" s="2">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>405</v>
       </c>
+      <c r="B317" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>406</v>
       </c>
+      <c r="B318" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>407</v>
       </c>
+      <c r="B319" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>408</v>
+        <v>409</v>
+      </c>
+      <c r="B320" s="2">
+        <v>0.44</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>410</v>
       </c>
+      <c r="B321" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>412</v>
       </c>
+      <c r="B322" s="2">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>413</v>
       </c>
+      <c r="B323" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>414</v>
       </c>
+      <c r="B324" s="2">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
@@ -2757,41 +2969,65 @@
       <c r="A326" s="1">
         <v>416</v>
       </c>
+      <c r="B326" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>417</v>
       </c>
+      <c r="B327" s="2">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>419</v>
       </c>
+      <c r="B328" s="2">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>420</v>
       </c>
+      <c r="B329" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>421</v>
       </c>
+      <c r="B330" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>423</v>
       </c>
+      <c r="B331" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>424</v>
       </c>
+      <c r="B332" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>427</v>
       </c>
+      <c r="B333" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
@@ -2813,26 +3049,41 @@
       <c r="A336" s="1">
         <v>432</v>
       </c>
+      <c r="B336" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>433</v>
       </c>
+      <c r="B337" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>434</v>
       </c>
+      <c r="B338" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>435</v>
       </c>
+      <c r="B339" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>436</v>
       </c>
+      <c r="B340" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
@@ -2846,21 +3097,33 @@
       <c r="A342" s="1">
         <v>438</v>
       </c>
+      <c r="B342" s="2">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>440</v>
       </c>
+      <c r="B343" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>441</v>
       </c>
+      <c r="B344" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>442</v>
       </c>
+      <c r="B345" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
@@ -2874,11 +3137,17 @@
       <c r="A347" s="1">
         <v>446</v>
       </c>
+      <c r="B347" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>447</v>
       </c>
+      <c r="B348" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
@@ -2892,36 +3161,57 @@
       <c r="A350" s="1">
         <v>449</v>
       </c>
+      <c r="B350" s="2">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>450</v>
       </c>
+      <c r="B351" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>451</v>
       </c>
+      <c r="B352" s="2">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>452</v>
       </c>
+      <c r="B353" s="2">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>453</v>
       </c>
+      <c r="B354" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>454</v>
       </c>
+      <c r="B355" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>455</v>
       </c>
+      <c r="B356" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
@@ -2935,11 +3225,17 @@
       <c r="A358" s="1">
         <v>457</v>
       </c>
+      <c r="B358" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>458</v>
       </c>
+      <c r="B359" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
@@ -2969,56 +3265,89 @@
       <c r="A363" s="1">
         <v>462</v>
       </c>
+      <c r="B363" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>463</v>
       </c>
+      <c r="B364" s="2">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>464</v>
       </c>
+      <c r="B365" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>466</v>
       </c>
+      <c r="B366" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>467</v>
       </c>
+      <c r="B367" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>468</v>
       </c>
+      <c r="B368" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>470</v>
       </c>
+      <c r="B369" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>472</v>
       </c>
+      <c r="B370" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>473</v>
       </c>
+      <c r="B371" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>474</v>
       </c>
+      <c r="B372" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>475</v>
       </c>
+      <c r="B373" s="2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
@@ -3032,95 +3361,152 @@
       <c r="A375" s="1">
         <v>477</v>
       </c>
+      <c r="B375" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>478</v>
       </c>
+      <c r="B376" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>479</v>
       </c>
+      <c r="B377" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>480</v>
       </c>
+      <c r="B378" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>481</v>
       </c>
+      <c r="B379" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>482</v>
       </c>
+      <c r="B380" s="2">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>483</v>
       </c>
+      <c r="B381" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>485</v>
       </c>
+      <c r="B382" s="2">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>486</v>
       </c>
+      <c r="B383" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>488</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B384" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>491</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B385" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>492</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B386" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>493</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B387" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>494</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B388" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>495</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B389" s="2">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>496</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B390" s="2">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>497</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B391" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>498</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B392" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>500</v>
+      </c>
+      <c r="B393" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
